--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_62.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_62.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Econo Lodge New Orleans</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>New Orleans</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>35</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>42305</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70126</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70126</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_62.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_62.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,673 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r617808337-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>60864</t>
+  </si>
+  <si>
+    <t>223117</t>
+  </si>
+  <si>
+    <t>617808337</t>
+  </si>
+  <si>
+    <t>09/18/2018</t>
+  </si>
+  <si>
+    <t>Easy access to the NO airport</t>
+  </si>
+  <si>
+    <t>Stayed here to be at MSY for a very early flight.  Check in was easy, the girl was very pleasant.  The room was adequate, our bathroom was HUGE !!! There wasn't anything I can say bad about this place.  Easy peezy all the way around !!!</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r575290514-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>575290514</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Econolodge New Orleans, chef Menteur highway</t>
+  </si>
+  <si>
+    <t>I had read a lot of terrible reviews for this place but we stayed there and it was fine! The room was clean, they included a continental breakfast, it was very quiet at night while we were sleeping and the area was fine too. It had a lot of fast food places around and kind of an industrial area and there is a public bus a few steps away that takes you to the French quarter in 15 minutes! So I would give it a good review. The only problem was we wanted a non-smoking room but obviously someone had smoked in it. I think a lot of people disregard the rules.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I had read a lot of terrible reviews for this place but we stayed there and it was fine! The room was clean, they included a continental breakfast, it was very quiet at night while we were sleeping and the area was fine too. It had a lot of fast food places around and kind of an industrial area and there is a public bus a few steps away that takes you to the French quarter in 15 minutes! So I would give it a good review. The only problem was we wanted a non-smoking room but obviously someone had smoked in it. I think a lot of people disregard the rules.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r552472479-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>552472479</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Rough but handy 1</t>
+  </si>
+  <si>
+    <t>This Hotel is in a rough area and some of the people hanging about it did not look to nice - its needs up dated but is cheap -- well cheap for New orleans !!its about 15 minutes away from the French Quarter by car - its really is a struggle to get a decent hotel close to the French Quarter for a reasonable price - hence the Econo lodge the Hotel itself was OK but its tired and needs a refurb - the surrounding area is very rough in places and close by people were sleeping in shop area we had no prblems - but it would not be my choice again to be honestMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This Hotel is in a rough area and some of the people hanging about it did not look to nice - its needs up dated but is cheap -- well cheap for New orleans !!its about 15 minutes away from the French Quarter by car - its really is a struggle to get a decent hotel close to the French Quarter for a reasonable price - hence the Econo lodge the Hotel itself was OK but its tired and needs a refurb - the surrounding area is very rough in places and close by people were sleeping in shop area we had no prblems - but it would not be my choice again to be honestMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r549049018-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>549049018</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Sketchy looking neighborhood</t>
+  </si>
+  <si>
+    <t>Inexpensive rates. Unusual location. Interiors need an update.Just off of I10 but tricky access to property.Staff is brusk with patrons. Not very helpful when asked for local information.Will avoid this property on future travel.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r535452803-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>535452803</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>THE WORST PLACE EVER!!!!</t>
+  </si>
+  <si>
+    <t>This thing doesn’t have to be called a hotel, this is the worst place ever!!!!!!!!Hygiene is something the hotel doesn’t know exsists, you can see food, cigarettes, used condoms and much more just a feet outside your door.Nasty parties during night!! We even had to call the police one night!!!!Just don’t go to that place ever!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r529939060-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>529939060</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>value for money</t>
+  </si>
+  <si>
+    <t>the econo lodge is a nice place to stay it has all the basic needs you need two queen beds shower aircon and mini fridge and tv and also has free wifi the only thing was the aircon that was a bit noisy it was nice and clean .</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r478376979-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>478376979</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>room was not clean</t>
+  </si>
+  <si>
+    <t>walk in the smell hits you... was not vaccum had penny onfloor a screw. hair inthe bath tub on the towels and took a tissue wipe the cabinet around the sink had more nasty then on the floor...never again and do not recommend...def fail of inspection.....</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r454574521-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>454574521</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Good access to French Quarter</t>
+  </si>
+  <si>
+    <t>It's an EconoLodge . . . I have stayed at lots of them, and this one is about what is expected. The best selling point is ease of access to the French Quarter, particularly when you return from the Quarter--when ease for driving is the most necessary. Head north on Esplanade, turn right at the I-10 and take the service road to the on-ramp (a left turn off the service road). Close to the motel are a handful of eating places, of the chain variety. A McDonald's and a Waffle House are close by, as is a grocery store.The motel grounds are a bit shabby, but why would you hang out at the EconoLodge when the Bourbon Street is fifteen minutes away?I have stayed at the motel twice during trips to New Orleans, and I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>It's an EconoLodge . . . I have stayed at lots of them, and this one is about what is expected. The best selling point is ease of access to the French Quarter, particularly when you return from the Quarter--when ease for driving is the most necessary. Head north on Esplanade, turn right at the I-10 and take the service road to the on-ramp (a left turn off the service road). Close to the motel are a handful of eating places, of the chain variety. A McDonald's and a Waffle House are close by, as is a grocery store.The motel grounds are a bit shabby, but why would you hang out at the EconoLodge when the Bourbon Street is fifteen minutes away?I have stayed at the motel twice during trips to New Orleans, and I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r437263437-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>437263437</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Stayed here for a 5 night stay to visit New Orleans and an event. Nothing fancy or top-notch here but decent. Stayed in room 200 which is a pretty good sized room with a single king size bed. Bedding is adequate and amenities are the same. I was solo for the trip so nothing extravagant needed, but if I'd have brought others I'd have stayed elsewhere. Neighborhood isn't great, and wouldn't recommend women/children roaming about after dark here. Not trying to be demeaning, just honest.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r379737878-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>379737878</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Don't believe those cranky people who write negative about this hotel!</t>
+  </si>
+  <si>
+    <t>I've traveled a bit, and let me tell you, this hotel is pretty decent. It's not top of the line, but the room I stayed in (#110) was clean, not worn out, the carpets and bathroom were in good shape, and the king-size mattress was comfortably firm. There were little fridge and microwave - very convenient! And even nice little seating area with a couch which was very clean, and a coffee table. 
+Included breakfast is a joke though. You'll get cereals, muffins, apples, juice, and bread and butter for toasts. That's it. I mean that's it. Not a single meat item. No eggs. Couple of times I didn't even get coffee. Just don't expect sufficient breakfast, that's it. Complement it with some groceries (that's why you're given fridge and microwave!), and you'll be fine. There's coffee maker in your room, by the way
+It's not really close to French Quarter, but there are 4 buses, including one night bus, serving that area, so to get back and forth is not a problem, it's literally only 15 mins one way! $3 daypass gives you unlimited rides on buses and streetcars! For the money you'll save on hotel rates it's totally worth it!
+The area is not the best one, but as in many US cities, it's pretty safe. I've walked it day and night, and didn't have any issues. There are few restaurants around, along with grocery stores. 
+There may...I've traveled a bit, and let me tell you, this hotel is pretty decent. It's not top of the line, but the room I stayed in (#110) was clean, not worn out, the carpets and bathroom were in good shape, and the king-size mattress was comfortably firm. There were little fridge and microwave - very convenient! And even nice little seating area with a couch which was very clean, and a coffee table. Included breakfast is a joke though. You'll get cereals, muffins, apples, juice, and bread and butter for toasts. That's it. I mean that's it. Not a single meat item. No eggs. Couple of times I didn't even get coffee. Just don't expect sufficient breakfast, that's it. Complement it with some groceries (that's why you're given fridge and microwave!), and you'll be fine. There's coffee maker in your room, by the wayIt's not really close to French Quarter, but there are 4 buses, including one night bus, serving that area, so to get back and forth is not a problem, it's literally only 15 mins one way! $3 daypass gives you unlimited rides on buses and streetcars! For the money you'll save on hotel rates it's totally worth it!The area is not the best one, but as in many US cities, it's pretty safe. I've walked it day and night, and didn't have any issues. There are few restaurants around, along with grocery stores. There may be some noise coming from train or ship but it's at a distance, occasionally only, and it didn't disturb me. Overall, it was a pleasant stay, and I'd go there again when in New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I've traveled a bit, and let me tell you, this hotel is pretty decent. It's not top of the line, but the room I stayed in (#110) was clean, not worn out, the carpets and bathroom were in good shape, and the king-size mattress was comfortably firm. There were little fridge and microwave - very convenient! And even nice little seating area with a couch which was very clean, and a coffee table. 
+Included breakfast is a joke though. You'll get cereals, muffins, apples, juice, and bread and butter for toasts. That's it. I mean that's it. Not a single meat item. No eggs. Couple of times I didn't even get coffee. Just don't expect sufficient breakfast, that's it. Complement it with some groceries (that's why you're given fridge and microwave!), and you'll be fine. There's coffee maker in your room, by the way
+It's not really close to French Quarter, but there are 4 buses, including one night bus, serving that area, so to get back and forth is not a problem, it's literally only 15 mins one way! $3 daypass gives you unlimited rides on buses and streetcars! For the money you'll save on hotel rates it's totally worth it!
+The area is not the best one, but as in many US cities, it's pretty safe. I've walked it day and night, and didn't have any issues. There are few restaurants around, along with grocery stores. 
+There may...I've traveled a bit, and let me tell you, this hotel is pretty decent. It's not top of the line, but the room I stayed in (#110) was clean, not worn out, the carpets and bathroom were in good shape, and the king-size mattress was comfortably firm. There were little fridge and microwave - very convenient! And even nice little seating area with a couch which was very clean, and a coffee table. Included breakfast is a joke though. You'll get cereals, muffins, apples, juice, and bread and butter for toasts. That's it. I mean that's it. Not a single meat item. No eggs. Couple of times I didn't even get coffee. Just don't expect sufficient breakfast, that's it. Complement it with some groceries (that's why you're given fridge and microwave!), and you'll be fine. There's coffee maker in your room, by the wayIt's not really close to French Quarter, but there are 4 buses, including one night bus, serving that area, so to get back and forth is not a problem, it's literally only 15 mins one way! $3 daypass gives you unlimited rides on buses and streetcars! For the money you'll save on hotel rates it's totally worth it!The area is not the best one, but as in many US cities, it's pretty safe. I've walked it day and night, and didn't have any issues. There are few restaurants around, along with grocery stores. There may be some noise coming from train or ship but it's at a distance, occasionally only, and it didn't disturb me. Overall, it was a pleasant stay, and I'd go there again when in New Orleans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r378612960-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>378612960</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Really??</t>
+  </si>
+  <si>
+    <t>Okay, I understand some of my fellow travelers want to save a buck. I will also concede that we didn't pay to stay here, my daughters dad used points for our room so I have no idea how much it costs BUT it can not be much less than $99 and I found a great hotel on hotels.com for $99 that did NOT have the risk of getting mugged or the car possibly not being there when we woke up, wet socks, dead bugs in bed or cigarette burns on the coverlet. This place is filthy. We were on the second floor and the area in front of the door was wet. There is no water source there ???  There were dead fleas and other winged bugs in the bed. The area is super sketchy. Do you really think this is a good idea "for the money". I must place more value on my safety and that of my family because it was free for us and I couldn't get out of here fast enough. MoreShow less</t>
+  </si>
+  <si>
+    <t>Okay, I understand some of my fellow travelers want to save a buck. I will also concede that we didn't pay to stay here, my daughters dad used points for our room so I have no idea how much it costs BUT it can not be much less than $99 and I found a great hotel on hotels.com for $99 that did NOT have the risk of getting mugged or the car possibly not being there when we woke up, wet socks, dead bugs in bed or cigarette burns on the coverlet. This place is filthy. We were on the second floor and the area in front of the door was wet. There is no water source there ???  There were dead fleas and other winged bugs in the bed. The area is super sketchy. Do you really think this is a good idea "for the money". I must place more value on my safety and that of my family because it was free for us and I couldn't get out of here fast enough. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r366666553-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>366666553</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>TRAINS, TRAFFIC AND SHIPS.  Not a quiet place but the noise from the A/C drowned out everything but the ships honking to go through the nearby drawbridge and the locomotives honking for whatever reason.  I was more disturbed by what seemed like a herd of horses in the room above me.  It was kids and they were "stomping" on the floor at all hours.  Between the A/C and leaving the bathroom fan on I slept well.  Room fairly clean - no bugs except for a teeny tiny little spider that I disposed of.  Did note some hair that wasn't mine in the bathroom.  Carpet cleaner than some.  Only turned my white socks a little brownish.  I've been in places that turned my socks black.  Cleaning ladies very nice.  I was still there when they did my room one day.  I didn't know that they changed everything but the mattress pad when they redid the bed.  Even the bed scarf was replaced.  That was assuring. Breakfast bar was OK.  Can't beat a free hot breakfast.  Neighborhood is mostly African American but that was not a problem.  Would definitely stay here again.  Price is right and it isn't far from all attractions.  Staff very nice too.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>TRAINS, TRAFFIC AND SHIPS.  Not a quiet place but the noise from the A/C drowned out everything but the ships honking to go through the nearby drawbridge and the locomotives honking for whatever reason.  I was more disturbed by what seemed like a herd of horses in the room above me.  It was kids and they were "stomping" on the floor at all hours.  Between the A/C and leaving the bathroom fan on I slept well.  Room fairly clean - no bugs except for a teeny tiny little spider that I disposed of.  Did note some hair that wasn't mine in the bathroom.  Carpet cleaner than some.  Only turned my white socks a little brownish.  I've been in places that turned my socks black.  Cleaning ladies very nice.  I was still there when they did my room one day.  I didn't know that they changed everything but the mattress pad when they redid the bed.  Even the bed scarf was replaced.  That was assuring. Breakfast bar was OK.  Can't beat a free hot breakfast.  Neighborhood is mostly African American but that was not a problem.  Would definitely stay here again.  Price is right and it isn't far from all attractions.  Staff very nice too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r364260568-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>364260568</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for a class I was taking in the area.  The price was right but no way would I stay here again.  The hotel is old and it's obvious very little has been done to modernize it.  It's also in a VERY bad area.  The staff was indifferent at best. I don't recommend this hotel at all. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r357425353-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>357425353</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Toad Hole</t>
+  </si>
+  <si>
+    <t>Stay away. This place is a dirty, grubby dump in a dangerous neighbourhood.The front desk tried to overcharge me for the two night stay even though I presented the receptionist, a "Mr. Patel" with my confirmation and price quote.It was only when I contacted the booking agency that "Mr. Patel" backed off and issued me a refund.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r356549784-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>356549784</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Great price &amp; Well kept</t>
+  </si>
+  <si>
+    <t>The check in was fast &amp; easy! The room was very clean &amp; all amenities were present &amp; working! Some reviews stated it was the "bad" side of town. We were two women traveling alone &amp; not once did I feel threatened or afraid &amp; everyone was very kind. The location was great! Maybe a 10 min drive to the French Quarter! If you want a great,clean room for next to nothing this is your place!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r355970628-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>355970628</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Clean room. Easy in and out. efficient not luxury.</t>
+  </si>
+  <si>
+    <t>It's an Econo Lodge so by name it's a discount motel. It was well suitable for what I needed and that's sleep. It's right off the interstate. I felt safe and secure. The place seemed very well maintained and cleaner, spacious than a much nicer pricier hotel we had stayed at the previous night. Sure it was 5 miles from the action of Bourbon street but the room is bigger cleaner cheaper easier access and either way you have to pay to park and walk. Even if you get a hotel in the middle of the city you have to pay $30 or more to a parking lot or to the hotel valet.MoreShow less</t>
+  </si>
+  <si>
+    <t>It's an Econo Lodge so by name it's a discount motel. It was well suitable for what I needed and that's sleep. It's right off the interstate. I felt safe and secure. The place seemed very well maintained and cleaner, spacious than a much nicer pricier hotel we had stayed at the previous night. Sure it was 5 miles from the action of Bourbon street but the room is bigger cleaner cheaper easier access and either way you have to pay to park and walk. Even if you get a hotel in the middle of the city you have to pay $30 or more to a parking lot or to the hotel valet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r355004833-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>355004833</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Dirty and Ghettoish</t>
+  </si>
+  <si>
+    <t>The first room they checked us in to no lie had dog crap on the floor in one corner. When I called the front desk they switched our rooms. We were then staying next to a room if three to four prostitutes and their pimp. They were courteous though and quiet. I did hear them leave about 1:30 at night and came back about 4:30. Lot of trashy people in and around this place and I wouldnt recommend it to anyone. Rooms smelled old and must and even though both the rooms said no smoking it smelled like smoke and had burn holes in top cover of bed. My tip is to try some where else in different part of this area even.MoreShow less</t>
+  </si>
+  <si>
+    <t>The first room they checked us in to no lie had dog crap on the floor in one corner. When I called the front desk they switched our rooms. We were then staying next to a room if three to four prostitutes and their pimp. They were courteous though and quiet. I did hear them leave about 1:30 at night and came back about 4:30. Lot of trashy people in and around this place and I wouldnt recommend it to anyone. Rooms smelled old and must and even though both the rooms said no smoking it smelled like smoke and had burn holes in top cover of bed. My tip is to try some where else in different part of this area even.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r345792549-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>345792549</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road trip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot really described, On the outskirts of downtown New Orleans. Nice room clean.Plenty of places to eat and shopping Free WiFi Free parking 20 Minutes to French  Quarters Close to highway, downtown and 15 minutes to airport </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r327037665-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>327037665</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Not the best location</t>
+  </si>
+  <si>
+    <t>The hotel itself I had no issues with. The front desk was helpful. The only issue was with location. If you don't have a car, you're pretty far away from the french quarter. It is on the bus route, which we utilized, but that's not for everyone. If you don't plan on having a car, or taking the city bus, I'd look closer to the french quarter.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r273416299-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>273416299</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Ok for a short stay</t>
+  </si>
+  <si>
+    <t>The lodge was better than I anticipated by the reviews, While the front desk personal were matter of fact considering the neighborhood I think that attitude may be necessary, however they were courteous. The room was clean and the beds were comfortable, but it did have that cheap motel room smell. The close location to a strip mall, Walmart, grocery stores and fast food places makes it very convenient for short trip pick ups.  Considering the excessive room rates for New Orleans this is a decent alternative for a short stay if your plan in to just stay in the hotel to sleep. The breakfast was minimal. If not for the smell and minimal breakfast I would give them 2.5 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>The lodge was better than I anticipated by the reviews, While the front desk personal were matter of fact considering the neighborhood I think that attitude may be necessary, however they were courteous. The room was clean and the beds were comfortable, but it did have that cheap motel room smell. The close location to a strip mall, Walmart, grocery stores and fast food places makes it very convenient for short trip pick ups.  Considering the excessive room rates for New Orleans this is a decent alternative for a short stay if your plan in to just stay in the hotel to sleep. The breakfast was minimal. If not for the smell and minimal breakfast I would give them 2.5 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r247058386-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>247058386</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>WORST HOTEL EVER!!</t>
+  </si>
+  <si>
+    <t>Let me start be saying there were only THREE reasons for me to stay calm, about my situation and experience at this establishment, are the two front desk workers Ms. Patricia (night clerk) &amp; Ms. Denise (over night clerk) and they gave me a FULL refund!!!! Other than that where do I start?? they canceled my Reservation at 4 pm even though I wrote I wouldn't be arriving until 8 pm. they ran my credit when I didn't show at 4 even though I was gonna pay cash when I arrived. There was no electricity in the entire room, nothing would come on  (NO TV, FRIDGE, MICROWAVE, PLUGS, nor LAMPS).  There were burn marks on the ceiling. I could tell housekeeping did a  half way job because the was stuff in the sink and tub, also found a perfume bottle on the floor. one of the beds was missing sheets AND it made me itch and smelled like pooh. At check the electricity came back on like someone flipped back on the breaker. the breakfast was ok, for what Ms. Denise had to work with!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Let me start be saying there were only THREE reasons for me to stay calm, about my situation and experience at this establishment, are the two front desk workers Ms. Patricia (night clerk) &amp; Ms. Denise (over night clerk) and they gave me a FULL refund!!!! Other than that where do I start?? they canceled my Reservation at 4 pm even though I wrote I wouldn't be arriving until 8 pm. they ran my credit when I didn't show at 4 even though I was gonna pay cash when I arrived. There was no electricity in the entire room, nothing would come on  (NO TV, FRIDGE, MICROWAVE, PLUGS, nor LAMPS).  There were burn marks on the ceiling. I could tell housekeeping did a  half way job because the was stuff in the sink and tub, also found a perfume bottle on the floor. one of the beds was missing sheets AND it made me itch and smelled like pooh. At check the electricity came back on like someone flipped back on the breaker. the breakfast was ok, for what Ms. Denise had to work with!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r196222945-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>196222945</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>BEWARE BOTH THESE HOTELS. They are both the same place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Inn and Ecno are both the same hotel here...BED BUGS... We checked in the 1st room, it was flooded from water leak. 2nd room had broken sink plumbing issues.3rd room just disgusting period!BED BUG complaints at desk went unheard only another room. I stay at 100 choice hotels a year- I'm disgusted here being a choice member </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r195492636-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>195492636</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>minimal hot water</t>
+  </si>
+  <si>
+    <t>The only advantage for this hotel is it is very close to the airport.  Beware-it looks nice from the outside but is very ran down.  There was not enough hot water for both of us to shower.  Breakfast was a joke.  I informed staff the waffle mix was empty but it was not refilled while we were there.  The milk jug as empty so no cold cereal either.  No fresh fruit available.  The breakfast area was dirty. Evening staff was friendly upon check in.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r179862655-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>179862655</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Celan room, friendly staff value for money</t>
+  </si>
+  <si>
+    <t>Large room, Clean Bathroom, Good breakfastFriendly StaffValue for moneyNear food outlets and supermarketNot to far from the CBD. Though I'd drive and not walk, we had everyone talked us out of walkingPlenty of parking in town</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r175627317-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>175627317</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Better than average and short cab ride to Bourbon St.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want a clean room for good value that is less than a $15 taxi ride to the French Quarter then this could be the place for you. Be advised that the hotel is not in an area with great amenities, shopping, or things to do. However, access to downtown is 5 miles away-easy drive. The biggest complaint is the breakfast. Compared to other Choice Hotels this one gets an F grade. You get the choice of two types of dry cereal, two diff muffins, toast, and beverages- that is it. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r155087700-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>155087700</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>This place doubles as an hourly hotel for sex workers!</t>
+  </si>
+  <si>
+    <t>Visited for St Patrick's Day weekend 03/2013 and requested a non-smoking room online and had to stay in a room for smokers because the hotel was overbooked. Upon entering the room, I noticed a musty odor. It smelled like the carpet had been wet and not completely dried. There was a substance on the wall...appears as though, something had dripped down the wall and instead of wiped off just allowed to dry...hope it wasn't bodily fluids. The shower head was broken...there was more water sprayed on the ceiling and floor than in the tub. A moth was flying around the room...I had to swat it!  There were 2 pink balloons in the light fixture over the sink that had popped and not removed.  I had to buy cleaning supplies to clean the bathroom and glade plug-ins to deodorize the room...2-night stay turned into 1 night stay and a refund...IT WAS TERRIBLE!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Visited for St Patrick's Day weekend 03/2013 and requested a non-smoking room online and had to stay in a room for smokers because the hotel was overbooked. Upon entering the room, I noticed a musty odor. It smelled like the carpet had been wet and not completely dried. There was a substance on the wall...appears as though, something had dripped down the wall and instead of wiped off just allowed to dry...hope it wasn't bodily fluids. The shower head was broken...there was more water sprayed on the ceiling and floor than in the tub. A moth was flying around the room...I had to swat it!  There were 2 pink balloons in the light fixture over the sink that had popped and not removed.  I had to buy cleaning supplies to clean the bathroom and glade plug-ins to deodorize the room...2-night stay turned into 1 night stay and a refund...IT WAS TERRIBLE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r132603691-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>132603691</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Bed BUGS!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two words.. bed bugs!! The desk clerk did not want to offer a refund.  Finally gave in and gave me a piece of paper with refund (didn't really state refund).  Found later that the room was charged twice to my account. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r127907055-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>127907055</t>
+  </si>
+  <si>
+    <t>04/15/2012</t>
+  </si>
+  <si>
+    <t>This is one big prostitute hotel.</t>
+  </si>
+  <si>
+    <t>I stayed for 5 day and seen more prostitutes and johns come and go than I've seen m my life and I'm 40 and n the military. They have  atleast 7 rooms going at once. There are two main pimps that change the girls out daily and some of the girls have infants in the rooms. It is nasty, when we got our room the maid just finished cleaning ot and left a condom n the trash. Unless you have serious issues, I would not stay her. If you're single and don't mind paying for booty then this is the place for you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r126506370-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>126506370</t>
+  </si>
+  <si>
+    <t>03/22/2012</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Stayed here for one night on a recent trip to NOLA. Rooms were clean and decent but smelled a bit like smoke in a non-smoking room.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r119692688-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>119692688</t>
+  </si>
+  <si>
+    <t>10/24/2011</t>
+  </si>
+  <si>
+    <t>we were robbed</t>
+  </si>
+  <si>
+    <t>DO NOT STAY AT THIS HOTEL!  My husband and I stayed from out of town to visit his family.  We were out of our room for 12 minutes by foot and we were robbed.  Our room was gotten into (not forcibly) and my laptop computer, digital camera, and my husband's watches were stolen.  The management would not help us or call the police.  It is not a place for vacationers.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r116856090-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>116856090</t>
+  </si>
+  <si>
+    <t>08/17/2011</t>
+  </si>
+  <si>
+    <t>Pleasant</t>
+  </si>
+  <si>
+    <t>When I arrived @ the hotel it was Great!!! It took the guy who checked me in a little minute to get it together as if he didn't know what he was doing. I got to the room and it was very nice!!! I would stay again @ this location. The only thing that was a problem was when I requested a 2pm checkout(since I am a Choice Priviledge member) the guy @ the desk told me that they didnt honor it and I had to checkout @ 11. So when I talked to the manager he allowed me to have the 2pm checkout. If I needed anything the Staff was wonderful esp the housekeepers. I enjoyed my stay here!!! Keep up the great work!! The only thing they missing is a POOL!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>When I arrived @ the hotel it was Great!!! It took the guy who checked me in a little minute to get it together as if he didn't know what he was doing. I got to the room and it was very nice!!! I would stay again @ this location. The only thing that was a problem was when I requested a 2pm checkout(since I am a Choice Priviledge member) the guy @ the desk told me that they didnt honor it and I had to checkout @ 11. So when I talked to the manager he allowed me to have the 2pm checkout. If I needed anything the Staff was wonderful esp the housekeepers. I enjoyed my stay here!!! Keep up the great work!! The only thing they missing is a POOL!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r65780568-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>65780568</t>
+  </si>
+  <si>
+    <t>05/29/2010</t>
+  </si>
+  <si>
+    <t>Wouldn't recommend to my worst enemy</t>
+  </si>
+  <si>
+    <t>Entire room smelled like three year old spoiled cheese. Floors so grimy, I refused to walk anywhere without shoes. Linen damp and dirty as if not changed in a while. Towels contained pubic hair. Service was horrible; front desk clerk was very unpleasant and cold.  I would not recommend this hotel to my worst enemy or an animal. Worst place ever stayed.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r56513217-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>56513217</t>
+  </si>
+  <si>
+    <t>02/19/2010</t>
+  </si>
+  <si>
+    <t>the manager there  was rude and not reasonable</t>
+  </si>
+  <si>
+    <t>i would not recommend anybody to stay there the staff there the daytime manager in particular was rude and not resonable and appeared to not know what they were doing as far as handling business transactions</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r2842344-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>2842344</t>
+  </si>
+  <si>
+    <t>11/22/2004</t>
+  </si>
+  <si>
+    <t>Here's a value stay!</t>
+  </si>
+  <si>
+    <t>23Nov04  We just enjoyed a great stay and cruise (Norwegian Dream) in New Orleans and would like to tell you about the EconoLodge (Chef Menteur Hy).  This is a ways out from the French Quarter and we rode buses to and fro all over the city.  We had a large king room and met great folks there that helped us get oriented to "The Big Easy."  Room had micro and fridge, no-smoking, lots more for $45.59 a night and double frequent stay stamps.  (Our 5 night stay got us $50.00 off our next stay at any EconoLodge.)  This is the way to see New Orleans.  PS:  Bus/Trolley fare is $.40, with free transfers. for seniors... great!!  Parking in the French Quarter can be $8.00 an HOUR!  Enjoy!MoreShow less</t>
+  </si>
+  <si>
+    <t>23Nov04  We just enjoyed a great stay and cruise (Norwegian Dream) in New Orleans and would like to tell you about the EconoLodge (Chef Menteur Hy).  This is a ways out from the French Quarter and we rode buses to and fro all over the city.  We had a large king room and met great folks there that helped us get oriented to "The Big Easy."  Room had micro and fridge, no-smoking, lots more for $45.59 a night and double frequent stay stamps.  (Our 5 night stay got us $50.00 off our next stay at any EconoLodge.)  This is the way to see New Orleans.  PS:  Bus/Trolley fare is $.40, with free transfers. for seniors... great!!  Parking in the French Quarter can be $8.00 an HOUR!  Enjoy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223117-r1257280-Econo_Lodge_New_Orleans_Near_Superdome-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>1257280</t>
+  </si>
+  <si>
+    <t>08/22/2003</t>
+  </si>
+  <si>
+    <t>Nothing fancy, but do able.</t>
+  </si>
+  <si>
+    <t>There's nothing fancy about this hotel, but it was fine for us. We weren't planning to spend much timehere anyhow. It's on the opposite side of the River from the French Quarter, but there is a ferrythat takes you across the Mississippi and the hotel has a van that takes you to the ferry every hour. But to be picked up, we found out you have to call in advance to let them know. We did not know this at first. The first couple times was no problem since the van came for other guests who must have known you need to call, but until we found that out, one night we sat for over2 hours for it to come, once we did call we still had to wait until the designated time. Once we learned that though it was no problem. Also, though the area the hotel is in is not the best, nor is the area where the ferry is. I did not feel totally at ease waiting for the van to get back to the hotel at night. Also, the ferry only runs until a designated time and not that late really. Maybe 10 or 10:30, not sure. Therefore if you want to stay late in the French Quarter the ferry is not a viable option. Driving and parking is out of the question.
+The staff at the front desk was ready to help and we were...There's nothing fancy about this hotel, but it was fine for us. We weren't planning to spend much timehere anyhow. It's on the opposite side of the River from the French Quarter, but there is a ferrythat takes you across the Mississippi and the hotel has a van that takes you to the ferry every hour. But to be picked up, we found out you have to call in advance to let them know. We did not know this at first. The first couple times was no problem since the van came for other guests who must have known you need to call, but until we found that out, one night we sat for over2 hours for it to come, once we did call we still had to wait until the designated time. Once we learned that though it was no problem. Also, though the area the hotel is in is not the best, nor is the area where the ferry is. I did not feel totally at ease waiting for the van to get back to the hotel at night. Also, the ferry only runs until a designated time and not that late really. Maybe 10 or 10:30, not sure. Therefore if you want to stay late in the French Quarter the ferry is not a viable option. Driving and parking is out of the question.The staff at the front desk was ready to help and we were able to have them arrange one of the many swamp tours for us. The rates were extremely reasonable, but next time we come to New Orleans, we plan to stay in or nearthe French Quarter. It's worth it to pay more and just be footsteps from where the action and attractions are. You could definitely do worse in hotels, but then again you could definitely do better.MoreShow less</t>
+  </si>
+  <si>
+    <t>There's nothing fancy about this hotel, but it was fine for us. We weren't planning to spend much timehere anyhow. It's on the opposite side of the River from the French Quarter, but there is a ferrythat takes you across the Mississippi and the hotel has a van that takes you to the ferry every hour. But to be picked up, we found out you have to call in advance to let them know. We did not know this at first. The first couple times was no problem since the van came for other guests who must have known you need to call, but until we found that out, one night we sat for over2 hours for it to come, once we did call we still had to wait until the designated time. Once we learned that though it was no problem. Also, though the area the hotel is in is not the best, nor is the area where the ferry is. I did not feel totally at ease waiting for the van to get back to the hotel at night. Also, the ferry only runs until a designated time and not that late really. Maybe 10 or 10:30, not sure. Therefore if you want to stay late in the French Quarter the ferry is not a viable option. Driving and parking is out of the question.
+The staff at the front desk was ready to help and we were...There's nothing fancy about this hotel, but it was fine for us. We weren't planning to spend much timehere anyhow. It's on the opposite side of the River from the French Quarter, but there is a ferrythat takes you across the Mississippi and the hotel has a van that takes you to the ferry every hour. But to be picked up, we found out you have to call in advance to let them know. We did not know this at first. The first couple times was no problem since the van came for other guests who must have known you need to call, but until we found that out, one night we sat for over2 hours for it to come, once we did call we still had to wait until the designated time. Once we learned that though it was no problem. Also, though the area the hotel is in is not the best, nor is the area where the ferry is. I did not feel totally at ease waiting for the van to get back to the hotel at night. Also, the ferry only runs until a designated time and not that late really. Maybe 10 or 10:30, not sure. Therefore if you want to stay late in the French Quarter the ferry is not a viable option. Driving and parking is out of the question.The staff at the front desk was ready to help and we were able to have them arrange one of the many swamp tours for us. The rates were extremely reasonable, but next time we come to New Orleans, we plan to stay in or nearthe French Quarter. It's worth it to pay more and just be footsteps from where the action and attractions are. You could definitely do worse in hotels, but then again you could definitely do better.More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +1228,2157 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>133</v>
+      </c>
+      <c r="L18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>147</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>153</v>
+      </c>
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" t="s">
+        <v>171</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>172</v>
+      </c>
+      <c r="O24" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" t="s">
+        <v>177</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>178</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" t="s">
+        <v>188</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>189</v>
+      </c>
+      <c r="O27" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>192</v>
+      </c>
+      <c r="J28" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" t="s">
+        <v>195</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>197</v>
+      </c>
+      <c r="J29" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" t="s">
+        <v>199</v>
+      </c>
+      <c r="L29" t="s">
+        <v>200</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>202</v>
+      </c>
+      <c r="J30" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" t="s">
+        <v>204</v>
+      </c>
+      <c r="L30" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>206</v>
+      </c>
+      <c r="O30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" t="s">
+        <v>210</v>
+      </c>
+      <c r="L31" t="s">
+        <v>211</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>212</v>
+      </c>
+      <c r="O31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" t="s">
+        <v>216</v>
+      </c>
+      <c r="L32" t="s">
+        <v>217</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>218</v>
+      </c>
+      <c r="O32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" t="s">
+        <v>223</v>
+      </c>
+      <c r="L33" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>225</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>227</v>
+      </c>
+      <c r="J34" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" t="s">
+        <v>229</v>
+      </c>
+      <c r="L34" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>231</v>
+      </c>
+      <c r="O34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>233</v>
+      </c>
+      <c r="J35" t="s">
+        <v>234</v>
+      </c>
+      <c r="K35" t="s">
+        <v>235</v>
+      </c>
+      <c r="L35" t="s">
+        <v>236</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>239</v>
+      </c>
+      <c r="J36" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" t="s">
+        <v>241</v>
+      </c>
+      <c r="L36" t="s">
+        <v>242</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +3401,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +3433,31 @@
         <v>42305</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="E2" t="n">
         <v>70126</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
